--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746795.9981904253</v>
+        <v>-749787.4174429239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8626242.131105013</v>
+        <v>8585397.263433037</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13951815.7088756</v>
+        <v>13953096.25901019</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>328.9305739418226</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2765612508223</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.63122185700568</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>163.2123634091011</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>86.13065206326425</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>210.0857452569625</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>176.8585984528613</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5770567221875</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>21.74793268595784</v>
       </c>
       <c r="G8" t="n">
-        <v>390.3792712592587</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250822</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229338</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>124.2196940949801</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853706</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>171.0238586670947</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1546,7 +1546,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>112.6468283655065</v>
+        <v>217.6224372901267</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589007</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>130.8921069052585</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>72.69618390907041</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>52.23490948285998</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>10.20389322926681</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>48.92874660882473</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>215.9919723025125</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045434</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>56.29832105437015</v>
+        <v>23.94516103140406</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>263.864736940621</v>
       </c>
       <c r="X31" t="n">
-        <v>54.06606565757703</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E34" t="n">
-        <v>102.8317080109048</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2574053851272</v>
+        <v>140.4471302624961</v>
       </c>
       <c r="H34" t="n">
-        <v>116.1693422999142</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I34" t="n">
-        <v>57.51992925236951</v>
+        <v>56.70965412973739</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.89610409904417</v>
+        <v>42.08582897641305</v>
       </c>
       <c r="S34" t="n">
-        <v>157.0538408664194</v>
+        <v>156.2435657437883</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1973469707221</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U34" t="n">
-        <v>261.9008040563807</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091572</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,19 +3314,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3357,10 +3357,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624961</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.70965412973841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.08582897641307</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437883</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091572</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060081973</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,10 +3594,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>140.447130262496</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.70965412973838</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.08582897641304</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437882</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091571</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="41">
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>140.447130262496</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.70965412973838</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.08582897641303</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.2435657437882</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.0427207091571</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672664</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.151898483957</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035415</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318983</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082604</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624961</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772831</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.70965412973838</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.08582897641304</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437883</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.387071848091</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337496</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091572</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>261.4280757219202</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743663</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374239</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1525.74665604171</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>1156.784139101298</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>798.5184404945476</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>412.7301878963033</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>412.7301878963033</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>412.7301878963033</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>85.53546793230618</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>1695.806495672433</v>
       </c>
     </row>
     <row r="3">
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X4" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.45494510253</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1623.178216428726</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1264.912517821975</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>879.1242652237311</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>468.1383604341235</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4604,13 +4604,13 @@
         <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2153.87838018277</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1780.41262192169</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1780.41262192169</v>
+        <v>1623.178216428726</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="W7" t="n">
-        <v>235.5914466506042</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1245.03963542969</v>
+        <v>821.0691186598694</v>
       </c>
       <c r="C8" t="n">
-        <v>1245.03963542969</v>
+        <v>821.0691186598694</v>
       </c>
       <c r="D8" t="n">
-        <v>1245.03963542969</v>
+        <v>821.0691186598694</v>
       </c>
       <c r="E8" t="n">
-        <v>859.2513828314454</v>
+        <v>821.0691186598694</v>
       </c>
       <c r="F8" t="n">
-        <v>448.2654780418379</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791251</v>
@@ -4829,7 +4829,7 @@
         <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332392</v>
+        <v>2520.971603332391</v>
       </c>
       <c r="T8" t="n">
         <v>2302.336936304454</v>
@@ -4838,16 +4838,16 @@
         <v>2302.336936304454</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960884</v>
+        <v>1971.274048960883</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>1971.274048960883</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.03963542969</v>
+        <v>1597.808290699803</v>
       </c>
       <c r="Y8" t="n">
-        <v>1245.03963542969</v>
+        <v>1207.668958723991</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615925</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>573.2376265802779</v>
+        <v>555.3776118154288</v>
       </c>
       <c r="C10" t="n">
-        <v>573.2376265802779</v>
+        <v>555.3776118154288</v>
       </c>
       <c r="D10" t="n">
-        <v>573.2376265802779</v>
+        <v>405.2609724030931</v>
       </c>
       <c r="E10" t="n">
-        <v>573.2376265802779</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F10" t="n">
-        <v>426.3476790823676</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G10" t="n">
         <v>257.3478788207</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658206</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502495</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594895</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600558</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600558</v>
+        <v>728.1289842064336</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600558</v>
+        <v>555.3776118154288</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600558</v>
+        <v>555.3776118154288</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600558</v>
+        <v>555.3776118154288</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600558</v>
+        <v>555.3776118154288</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600558</v>
+        <v>555.3776118154288</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600558</v>
+        <v>555.3776118154288</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600558</v>
+        <v>555.3776118154288</v>
       </c>
     </row>
     <row r="11">
@@ -5018,49 +5018,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,13 +5072,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,7 +5157,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>854.4007383484569</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,49 +5200,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1667.240599230348</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1553.455924113675</v>
+        <v>944.1369986568261</v>
       </c>
       <c r="W13" t="n">
-        <v>1264.038754076714</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="X13" t="n">
-        <v>1036.049203178697</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="Y13" t="n">
-        <v>1036.049203178697</v>
+        <v>654.7198286198654</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5291,13 +5291,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.1514798657305</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C16" t="n">
-        <v>612.2152969378236</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D16" t="n">
-        <v>462.0986575254879</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E16" t="n">
-        <v>462.0986575254879</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F16" t="n">
-        <v>315.2087100275775</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>315.2087100275775</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>168.9915232454352</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5452,34 +5452,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104705</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799875</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593988</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.789495593988</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="X16" t="n">
-        <v>962.7999446959702</v>
+        <v>1473.669427000799</v>
       </c>
       <c r="Y16" t="n">
-        <v>962.7999446959702</v>
+        <v>1252.876847857269</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
@@ -5519,19 +5519,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5543,7 +5543,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604874</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>391.866433243363</v>
+        <v>719.7238607267858</v>
       </c>
       <c r="C19" t="n">
-        <v>391.866433243363</v>
+        <v>550.7876777988789</v>
       </c>
       <c r="D19" t="n">
-        <v>391.866433243363</v>
+        <v>400.6710383865432</v>
       </c>
       <c r="E19" t="n">
-        <v>339.1038984121913</v>
+        <v>252.75794480415</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>105.8679973062397</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X19" t="n">
-        <v>391.866433243363</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y19" t="n">
-        <v>391.866433243363</v>
+        <v>901.3723255570255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,31 +5750,31 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427196</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196075</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.993034926782</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3763.957685256237</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5911,16 +5911,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
         <v>1646.12566951853</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931531</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1542.890966501056</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>1253.473796464096</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.050820091546</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.2582409480156</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,37 +6069,37 @@
         <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1546.483872535053</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1257.381005660696</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1002.69651745481</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>713.2793474178488</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>485.2897965198315</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>264.4972173763014</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127619</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
         <v>4202.751434297606</v>
@@ -6266,10 +6266,10 @@
         <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149658</v>
+        <v>142.676769632785</v>
       </c>
       <c r="L27" t="n">
-        <v>915.089423558717</v>
+        <v>142.676769632785</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810845</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210181</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O27" t="n">
-        <v>2323.25108071052</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>678.2659052086697</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C28" t="n">
-        <v>621.3989142446594</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D28" t="n">
-        <v>471.2822748323237</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E28" t="n">
-        <v>323.3691812499305</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S28" t="n">
-        <v>2361.553154294196</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T28" t="n">
-        <v>2141.874372008578</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U28" t="n">
-        <v>1852.798158323305</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V28" t="n">
-        <v>1598.113670117418</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W28" t="n">
-        <v>1308.696500080457</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X28" t="n">
-        <v>1080.70694918244</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y28" t="n">
-        <v>859.9143700389094</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="29">
@@ -6449,46 +6449,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287891952</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6540,25 +6540,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>142.6767696327819</v>
+        <v>965.25639787016</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849103</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284247</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>957.5492919979873</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C31" t="n">
-        <v>788.6131090700804</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D31" t="n">
-        <v>638.4964696577447</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E31" t="n">
-        <v>490.5833760753516</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F31" t="n">
-        <v>343.6934285774412</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294199</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033129</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U31" t="n">
-        <v>1958.704181747511</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="V31" t="n">
-        <v>1704.019693541624</v>
+        <v>1771.87903858312</v>
       </c>
       <c r="W31" t="n">
-        <v>1414.602523504663</v>
+        <v>1505.349001269361</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.990335971757</v>
+        <v>1277.359450371344</v>
       </c>
       <c r="Y31" t="n">
-        <v>1139.197756828227</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963571</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127636</v>
@@ -6731,19 +6731,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>93.84834815160706</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3570907149644</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="L33" t="n">
-        <v>915.0894235587139</v>
+        <v>142.6767696327952</v>
       </c>
       <c r="M33" t="n">
-        <v>1507.107777810839</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.203741210173</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.203741210173</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P33" t="n">
-        <v>2548.787259636247</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695767</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>908.1996457394534</v>
+        <v>921.9831621891565</v>
       </c>
       <c r="C34" t="n">
-        <v>763.7934097732028</v>
+        <v>778.3953859427353</v>
       </c>
       <c r="D34" t="n">
-        <v>638.2067173225234</v>
+        <v>653.6271532118852</v>
       </c>
       <c r="E34" t="n">
-        <v>534.3363051902963</v>
+        <v>531.0624663109778</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9763046540423</v>
+        <v>409.5209254945531</v>
       </c>
       <c r="G34" t="n">
-        <v>269.2920567902775</v>
+        <v>267.6551373506177</v>
       </c>
       <c r="H34" t="n">
-        <v>151.9492867903641</v>
+        <v>151.1308270705337</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160706</v>
       </c>
       <c r="J34" t="n">
-        <v>196.8722720582797</v>
+        <v>197.6744444296845</v>
       </c>
       <c r="K34" t="n">
-        <v>480.5428000459619</v>
+        <v>482.1471447887715</v>
       </c>
       <c r="L34" t="n">
-        <v>892.3464191462143</v>
+        <v>894.7529362604287</v>
       </c>
       <c r="M34" t="n">
-        <v>1335.617812207792</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N34" t="n">
-        <v>1774.355479016617</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O34" t="n">
-        <v>2165.419737048765</v>
+        <v>2170.232771277193</v>
       </c>
       <c r="P34" t="n">
-        <v>2479.991972902088</v>
+        <v>2485.607179501921</v>
       </c>
       <c r="Q34" t="n">
-        <v>2621.746907472641</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R34" t="n">
-        <v>2578.417509392799</v>
+        <v>2585.653348083866</v>
       </c>
       <c r="S34" t="n">
-        <v>2419.777266093385</v>
+        <v>2427.831564504282</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.628430769424</v>
+        <v>2233.50118890015</v>
       </c>
       <c r="U34" t="n">
-        <v>1960.082164045807</v>
+        <v>1969.773381896362</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.927622801576</v>
+        <v>1740.437300371961</v>
       </c>
       <c r="W34" t="n">
-        <v>1465.040399726272</v>
+        <v>1476.368537016486</v>
       </c>
       <c r="X34" t="n">
-        <v>1261.580795789911</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y34" t="n">
-        <v>1065.318163608037</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>93.84834815160639</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111714</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1513.293909294991</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2234.298471234025</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2971.583449151129</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3654.445485610264</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K36" t="n">
-        <v>251.5626541092274</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249859</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>921.9831621891565</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>778.3953859427352</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>653.6271532118851</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>531.0624663109777</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945535</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>267.6551373506181</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705341</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296845</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887714</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604287</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277194</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.50118890015</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1969.773381896362</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371961</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1476.368537016486</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963567</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>93.84834815160639</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4151.951912946789</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637304</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444888</v>
+        <v>2276.851722962018</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684175</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>921.9831621891577</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>778.3953859427365</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118865</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>531.0624663109791</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>409.5209254945545</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>197.6744444296846</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887715</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604287</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656413</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382517</v>
+        <v>2170.232771277194</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973195</v>
+        <v>2485.607179501922</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2233.501188900151</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016488</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799956</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337912</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>93.84834815160639</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4151.951912946789</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4515.534099052794</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143764</v>
+        <v>2276.851722962018</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143764</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>921.9831621891568</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>778.3953859427356</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>653.6271532118856</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>531.0624663109782</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>409.5209254945536</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>267.6551373506181</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>197.6744444296844</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887713</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>894.7529362604287</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277193</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501921</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.50118890015</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896363</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016487</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799955</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192412</v>
+        <v>93.84834815160639</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>373.3442236507179</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>842.9746074383977</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1462.49438794417</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3654.445485610264</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.75143429761</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>142.6767696327952</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>142.6767696327952</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319331</v>
+        <v>921.9831621891575</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656825</v>
+        <v>778.3953859427363</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150031</v>
+        <v>653.6271532118863</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942663</v>
+        <v>531.0624663109788</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580123</v>
+        <v>409.5209254945541</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345486</v>
+        <v>267.6551373506187</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705347</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954153</v>
+        <v>197.6744444296842</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>482.1471447887711</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311328</v>
+        <v>894.7529362604284</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1338.826501693411</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873641</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2170.232771277193</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2485.607179501921</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2628.16428644388</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931275</v>
+        <v>2585.653348083867</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2427.831564504283</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900151</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838287</v>
+        <v>1969.773381896364</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1740.437300371962</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518752</v>
+        <v>1476.368537016488</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582391</v>
+        <v>1273.727392799956</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337911</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451779</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.6414676374722</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400235</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,22 +9167,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>23.80814351663639</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
-        <v>249.451501837948</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>51.31264782911194</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10838,10 +10838,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>51.31264782911194</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>51.31264782911182</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>53.80326772165802</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5726309451237</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>357.2127245695091</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22714,13 +22714,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,19 +22747,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761676</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.4908149583215</v>
+        <v>34.51520603370133</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>48.93987327667881</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>23.65623650076768</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>94.19905316370918</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>155.8219150297614</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>176.7809087802124</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3.556976973656674</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>110.9485000442577</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>22.65826139596999</v>
       </c>
       <c r="X31" t="n">
-        <v>171.6435897314601</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>19.31760714362461</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.008970684779342e-12</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-5.186961971048731e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1149536.434497755</v>
+        <v>1148852.591204871</v>
       </c>
     </row>
     <row r="3">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1194129.728055029</v>
+        <v>1194129.728055028</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1194129.728055029</v>
+        <v>1194129.728055028</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1214625.104062088</v>
+        <v>1215308.947354972</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1214696.274339892</v>
+        <v>1215308.947354972</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1214696.274339892</v>
+        <v>1215308.947354972</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1214696.274339892</v>
+        <v>1215308.947354972</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1214696.274339892</v>
+        <v>1215308.947354972</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204411.5042397521</v>
+        <v>204284.0080326044</v>
       </c>
       <c r="C2" t="n">
         <v>225786.486712678</v>
@@ -26320,10 +26320,10 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
+        <v>218394.9827878408</v>
+      </c>
+      <c r="F2" t="n">
         <v>218394.9827878407</v>
-      </c>
-      <c r="F2" t="n">
-        <v>218394.9827878408</v>
       </c>
       <c r="G2" t="n">
         <v>218394.9827878408</v>
@@ -26341,7 +26341,7 @@
         <v>221837.8187076038</v>
       </c>
       <c r="L2" t="n">
-        <v>225658.9905055302</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126779</v>
@@ -26353,7 +26353,7 @@
         <v>225786.4867126779</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934073</v>
+        <v>727377.413993407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,31 +26381,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>369281.3433869618</v>
+        <v>369281.3433869619</v>
       </c>
       <c r="K3" t="n">
-        <v>1.158712166215992e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799362772</v>
+        <v>20075.93809173358</v>
       </c>
       <c r="M3" t="n">
-        <v>136530.2358202884</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.848155593459397e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147842.4646237279</v>
+        <v>147577.8441244559</v>
       </c>
       <c r="C4" t="n">
         <v>192206.5963924298</v>
@@ -26424,40 +26424,40 @@
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709185</v>
+        <v>21619.6079970919</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709182</v>
       </c>
       <c r="G4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662963</v>
+        <v>5069.915760662872</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662893</v>
       </c>
       <c r="L4" t="n">
-        <v>13060.77502375664</v>
+        <v>13327.39591959025</v>
       </c>
       <c r="M4" t="n">
-        <v>12448.50789975164</v>
+        <v>13327.39591959025</v>
       </c>
       <c r="N4" t="n">
-        <v>12448.50789975165</v>
+        <v>13327.39591959027</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975165</v>
+        <v>13327.39591959026</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.5078997516</v>
+        <v>13327.39591959025</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26494,22 +26494,22 @@
         <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>102971.6254872468</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065312</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-616257.9176619296</v>
+        <v>-616316.2704487151</v>
       </c>
       <c r="C6" t="n">
-        <v>-49279.18774316119</v>
+        <v>-49279.18774316125</v>
       </c>
       <c r="D6" t="n">
-        <v>-49279.18774316106</v>
+        <v>-49279.18774316079</v>
       </c>
       <c r="E6" t="n">
-        <v>-626985.5574563721</v>
+        <v>-627052.7529465976</v>
       </c>
       <c r="F6" t="n">
-        <v>100391.8565370354</v>
+        <v>100324.6610468095</v>
       </c>
       <c r="G6" t="n">
-        <v>100391.8565370352</v>
+        <v>100324.6610468095</v>
       </c>
       <c r="H6" t="n">
-        <v>100391.856537035</v>
+        <v>100324.6610468094</v>
       </c>
       <c r="I6" t="n">
-        <v>100391.8565370353</v>
+        <v>100324.6610468094</v>
       </c>
       <c r="J6" t="n">
-        <v>-253443.4798972595</v>
+        <v>-253479.3768791238</v>
       </c>
       <c r="K6" t="n">
-        <v>115837.8634897013</v>
+        <v>115801.9665078381</v>
       </c>
       <c r="L6" t="n">
-        <v>90198.87200089903</v>
+        <v>89343.40819482299</v>
       </c>
       <c r="M6" t="n">
-        <v>-26356.3728612775</v>
+        <v>-20222.96855238837</v>
       </c>
       <c r="N6" t="n">
-        <v>110173.8629590108</v>
+        <v>109419.3462865563</v>
       </c>
       <c r="O6" t="n">
-        <v>110173.8629590109</v>
+        <v>109419.3462865564</v>
       </c>
       <c r="P6" t="n">
-        <v>110173.8629590108</v>
+        <v>109419.3462865565</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170862</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26753,7 +26753,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26762,22 +26762,22 @@
         <v>1358.041048716386</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
         <v>1358.041048716382</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,16 +26820,16 @@
         <v>1173.104351895088</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.060194491824247e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762121</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,22 +26975,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>268.2643481230873</v>
+        <v>268.2643481230875</v>
       </c>
       <c r="K3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-5.108718167927599e-12</v>
+        <v>-3.395846723615204e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>9.934451625292013</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>520.2256578503751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>652.878694044713</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>520.2256578503749</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>652.8786940447131</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>519.829594054935</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177.7002608258839</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>56.57144545128591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>120.6547549940389</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>91.8027407895635</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>123.0695108328767</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>327.6535179575308</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>139.1552234604505</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>35.28694049715764</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>23.94594161440352</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>385.1281130557536</v>
       </c>
       <c r="G8" t="n">
-        <v>23.40489876153629</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481182</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>55.61228608695723</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491438</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>41.12168028292416</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.602510716717613e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.343281041954469e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
     </row>
     <row r="35">
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467084</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467087</v>
       </c>
     </row>
     <row r="41">
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203977</v>
+        <v>25.09492261467087</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>25.09492261467086</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.5445733255446</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405364</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338301</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954664</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633786</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473545</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,31 +31592,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.81250524001411</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188905</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890686</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396467</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.20177816491</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478005</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983119</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479576</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034976</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372661</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619147</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078602</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644434</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492002</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813572</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302229</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.7776065917248</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175832</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383791</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678001</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.6281993970116</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.91048397019722</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315606</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,7 +32081,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32470,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
         <v>0.436756920190194</v>
@@ -33017,7 +33017,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,34 +33026,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>187.1630768341347</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>338.6036580811502</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
         <v>0.1921756201013754</v>
@@ -33099,7 +33099,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
         <v>173.1391022273333</v>
@@ -33108,16 +33108,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
         <v>296.1865264282424</v>
@@ -33129,7 +33129,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>187.8760176396468</v>
+        <v>535.7779407933572</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T31" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,10 +33500,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684821</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745706</v>
+        <v>187.8760176396602</v>
       </c>
       <c r="M33" t="n">
         <v>740.1323715504278</v>
@@ -33512,13 +33512,13 @@
         <v>759.7214730927615</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P33" t="n">
         <v>557.7961431982436</v>
       </c>
       <c r="Q33" t="n">
-        <v>145.0576276814958</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K36" t="n">
-        <v>297.1808238847181</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>394.0223077997597</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>422.3544583169176</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169176</v>
       </c>
       <c r="P42" t="n">
-        <v>391.9250669264629</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>187.163076834145</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>282.8216163968498</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,13 +34781,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530449</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770682</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031296</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713855</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355144</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535713</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713944</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
         <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873139</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230594</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282428</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35820,7 +35820,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451118</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
         <v>78.39423853789366</v>
@@ -35887,22 +35887,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>531.8611444048555</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509647</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>648.21348805732</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>677.0902038955297</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>605.157040442574</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>49.32163785977568</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>196.0074136367058</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
         <v>262.2512393642057</v>
@@ -36759,19 +36759,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>49.32163785977259</v>
+        <v>397.223561013483</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710462</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946964</v>
+        <v>49.32163785978599</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284094</v>
@@ -37160,13 +37160,13 @@
         <v>628.3797610094282</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P33" t="n">
         <v>423.8217357839134</v>
       </c>
       <c r="Q33" t="n">
-        <v>5.075853595474315</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>104.0645696026997</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K34" t="n">
-        <v>286.5358868562446</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L34" t="n">
-        <v>415.9632516164166</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M34" t="n">
-        <v>447.7488818803813</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N34" t="n">
-        <v>443.1693604129546</v>
+        <v>443.9796355355857</v>
       </c>
       <c r="O34" t="n">
-        <v>395.0144020526745</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P34" t="n">
-        <v>317.7497331851747</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q34" t="n">
-        <v>143.1868025965189</v>
+        <v>143.99707771915</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>677.0902038955485</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924747</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K36" t="n">
-        <v>159.3393849103591</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>251.4260633553153</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O37" t="n">
-        <v>397.546547198085</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986646</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>143.99707771915</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P38" t="n">
-        <v>559.587454168383</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>418.5673812695212</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>279.7582138724732</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243176</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>279.7582138724732</v>
       </c>
       <c r="P42" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>741.0722806161175</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>49.321637859786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>140.6875824748315</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549932</v>
+        <v>104.8748447253308</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788757</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390477</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030124</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>443.9796355355858</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753057</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078058</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191501</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
